--- a/vbai-fhir/CodeSystem-child-education.xlsx
+++ b/vbai-fhir/CodeSystem-child-education.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>Property</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Level</t>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>User's highest level of education was the Kindergarden level</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Some elementary school education</t>
+  </si>
+  <si>
+    <t>User's highest level of education was the Elementary level</t>
   </si>
   <si>
     <t>G1</t>
@@ -567,7 +576,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -797,6 +806,20 @@
         <v>83</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/vbai-fhir/CodeSystem-child-education.xlsx
+++ b/vbai-fhir/CodeSystem-child-education.xlsx
@@ -395,10 +395,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-child-education.xlsx
+++ b/vbai-fhir/CodeSystem-child-education.xlsx
@@ -395,10 +395,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-child-education.xlsx
+++ b/vbai-fhir/CodeSystem-child-education.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -395,10 +395,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-child-education.xlsx
+++ b/vbai-fhir/CodeSystem-child-education.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire codes for child education</t>
+    <t>Child Education Level Code System</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The codes required for questionnaires</t>
+    <t>A comprehensive code system for identifying the highest level of education attained by a child, used in questionnaire contexts.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -138,7 +138,7 @@
     <t>No Formal Education</t>
   </si>
   <si>
-    <t>User has no formal Education</t>
+    <t>The child has not received any formal education.</t>
   </si>
   <si>
     <t>PS</t>
@@ -147,16 +147,16 @@
     <t>Pre-school</t>
   </si>
   <si>
-    <t>User's highest level of education was the Pre-school level</t>
+    <t>The child's highest level of education is pre-school.</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>Kindergarden</t>
-  </si>
-  <si>
-    <t>User's highest level of education was the Kindergarden level</t>
+    <t>Kindergarten</t>
+  </si>
+  <si>
+    <t>The child's highest level of education is kindergarten.</t>
   </si>
   <si>
     <t>SE</t>
@@ -165,7 +165,7 @@
     <t>Some elementary school education</t>
   </si>
   <si>
-    <t>User's highest level of education was the Elementary level</t>
+    <t>The child has some elementary school education.</t>
   </si>
   <si>
     <t>G1</t>
@@ -174,7 +174,7 @@
     <t>Grade 1</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 1</t>
+    <t>The child's highest level of education is Grade 1.</t>
   </si>
   <si>
     <t>G2</t>
@@ -183,7 +183,7 @@
     <t>Grade 2</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 2</t>
+    <t>The child's highest level of education is Grade 2.</t>
   </si>
   <si>
     <t>G3</t>
@@ -192,7 +192,7 @@
     <t>Grade 3</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 3</t>
+    <t>The child's highest level of education is Grade 3.</t>
   </si>
   <si>
     <t>G4</t>
@@ -201,7 +201,7 @@
     <t>Grade 4</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 4</t>
+    <t>The child's highest level of education is Grade 4.</t>
   </si>
   <si>
     <t>G5</t>
@@ -210,7 +210,7 @@
     <t>Grade 5</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 5</t>
+    <t>The child's highest level of education is Grade 5.</t>
   </si>
   <si>
     <t>G6</t>
@@ -219,7 +219,7 @@
     <t>Grade 6</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 6</t>
+    <t>The child's highest level of education is Grade 6.</t>
   </si>
   <si>
     <t>G7</t>
@@ -228,7 +228,7 @@
     <t>Grade 7</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 7</t>
+    <t>The child's highest level of education is Grade 7.</t>
   </si>
   <si>
     <t>G8</t>
@@ -237,7 +237,7 @@
     <t>Grade 8</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 8</t>
+    <t>The child's highest level of education is Grade 8.</t>
   </si>
   <si>
     <t>G9</t>
@@ -246,7 +246,7 @@
     <t>Grade 9</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 9</t>
+    <t>The child's highest level of education is Grade 9.</t>
   </si>
   <si>
     <t>G10</t>
@@ -255,7 +255,7 @@
     <t>Grade 10</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 10</t>
+    <t>The child's highest level of education is Grade 10.</t>
   </si>
   <si>
     <t>G11</t>
@@ -264,7 +264,7 @@
     <t>Grade 11</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 11</t>
+    <t>The child's highest level of education is Grade 11.</t>
   </si>
   <si>
     <t>G12</t>
@@ -273,7 +273,7 @@
     <t>Grade 12</t>
   </si>
   <si>
-    <t>User's highest level of education was Grade 12</t>
+    <t>The child's highest level of education is Grade 12.</t>
   </si>
 </sst>
 </file>

--- a/vbai-fhir/CodeSystem-child-education.xlsx
+++ b/vbai-fhir/CodeSystem-child-education.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/CodeSystem-child-education.xlsx
+++ b/vbai-fhir/CodeSystem-child-education.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
